--- a/KG/sample_data/class_level_data_1.xlsx
+++ b/KG/sample_data/class_level_data_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Iris\practice\GenAI\code\Batch_KG\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C62D47-FDF5-48AB-A6F7-4B6948A343BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E77151-BCF9-4C3C-841C-AD39C7469863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="736" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="736" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobGroups" sheetId="1" r:id="rId1"/>
@@ -2764,7 +2764,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3842,8 +3842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D3A986-0BD4-4414-9DF3-09CE83567AC3}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4710,7 +4710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -5468,7 +5468,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
